--- a/OICD使ったパイプライン.xlsx
+++ b/OICD使ったパイプライン.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turbou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turbou\git\TeamServerLibraryDataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D9FCE-E483-45C2-A140-53D6CCF31EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352EDD8-74F7-4EDE-BB25-D00A591AF352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{116F4681-573C-400D-8426-5F42414C1A83}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="25846" windowHeight="15526" xr2:uid="{116F4681-573C-400D-8426-5F42414C1A83}"/>
   </bookViews>
   <sheets>
-    <sheet name="①EC向けIAMロール" sheetId="1" r:id="rId1"/>
+    <sheet name="①EC2向けIAMロール" sheetId="1" r:id="rId1"/>
     <sheet name="②OpenIDプロバイダ" sheetId="4" r:id="rId2"/>
     <sheet name="③Gitlabアクション用IAMロール" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -863,7 +863,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4980722" cy="3020186"/>
+    <xdr:ext cx="4236609" cy="3881319"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -877,8 +877,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="800100"/>
-          <a:ext cx="4980722" cy="3020186"/>
+          <a:off x="247650" y="757238"/>
+          <a:ext cx="4236609" cy="3881319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,13 +978,43 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                "arn:aws:ec2:ap-northeast-1:771960604435:instance/i-0df6b98aa8d86e49d"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>            ]</a:t>
+            <a:t>                "arn:aws:ec2:ap-northeast-1:*:instance/*"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>            ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>            "Condition": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>                "StringLike": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>                    "ec2:ResourceTag/Name": "ForTeamServerLibraryDataTest-*"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>            }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1014,13 +1044,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>274153</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>84881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1058,7 +1088,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3171381" cy="1036694"/>
@@ -1367,13 +1397,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1431,13 +1461,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>208913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1488,7 +1518,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3101683" cy="328423"/>
@@ -1893,7 +1923,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,7 +1937,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,24 +1947,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1DED2D-7370-427F-B4C7-3C9E86E0D73A}">
-  <dimension ref="B2:B18"/>
+  <dimension ref="B2:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="2" spans="2:2" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
+    <row r="22" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/OICD使ったパイプライン.xlsx
+++ b/OICD使ったパイプライン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turbou\git\TeamServerLibraryDataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352EDD8-74F7-4EDE-BB25-D00A591AF352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37904655-3A98-440F-A515-037295B84B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="25846" windowHeight="15526" xr2:uid="{116F4681-573C-400D-8426-5F42414C1A83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{116F4681-573C-400D-8426-5F42414C1A83}"/>
   </bookViews>
   <sheets>
     <sheet name="①EC2向けIAMロール" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t>名前：</t>
@@ -61,16 +61,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>① ポリシーを作ります。</t>
-    <rPh sb="7" eb="8">
+    <t>② IAMロールを作ります。</t>
+    <rPh sb="9" eb="10">
       <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>② IAMロールを作ります。</t>
-    <rPh sb="9" eb="10">
+    <t>① 許可を追加でインラインポリシーを作ります。</t>
+    <rPh sb="2" eb="4">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>② 許可を追加でインラインポリシーを作ります。</t>
+    <rPh sb="2" eb="4">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>名前：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TeamServerForLibraryDataDescribe</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -856,240 +896,73 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4236609" cy="3881319"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9084F9-B09B-870D-E727-5C43C884E964}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B21B8D6-D737-7D22-AE75-0FFC6A2526C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="247650" y="757238"/>
-          <a:ext cx="4236609" cy="3881319"/>
+          <a:off x="0" y="5695950"/>
+          <a:ext cx="18211800" cy="7077075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>    "Version": "2012-10-17",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>    "Statement": [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>            "Effect": "Allow",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>            "Action": [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                "ec2:StartInstances",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                "ec2:StopInstances",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                "ssm:SendCommand"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>            ],</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>            "Resource": [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                "arn:aws:ssm:ap-northeast-1:*:document/AWS-RunShellScript",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                "arn:aws:ec2:ap-northeast-1:*:instance/*"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>            ],</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>            "Condition": {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                "StringLike": {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                    "ec2:ResourceTag/Name": "ForTeamServerLibraryDataTest-*"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>                }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>            }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>        }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>    ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>}</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>274153</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>84881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32FF5DC-7B28-3FF9-7793-0284D1FA8E24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="4286250"/>
-          <a:ext cx="16571428" cy="6752381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3171381" cy="1036694"/>
     <xdr:sp macro="" textlink="">
@@ -1105,7 +978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5305425" y="3771900"/>
+          <a:off x="2286000" y="2181225"/>
           <a:ext cx="3171381" cy="1036694"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1182,12 +1055,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6784037" cy="3256276"/>
+    <xdr:ext cx="8071440" cy="3093154"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
@@ -1201,8 +1074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9391650" y="2628900"/>
-          <a:ext cx="6784037" cy="3256276"/>
+          <a:off x="8496300" y="1085850"/>
+          <a:ext cx="8071440" cy="3093154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,160 +1107,233 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>{</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>    "Version": "2012-10-17",</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>    "Statement": [</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>        {</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>            "Effect": "Allow",</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>            "Principal": {</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>                "Federated": "</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>作成した</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>OpenID</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>プロバイダの</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>arn</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>"</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>            },</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>            "Action": "sts:AssumeRoleWithWebIdentity",</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>            "Condition": {</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>                "StringLike": {</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>                    "token.actions.githubusercontent.com:sub": "</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>repo:turbou/TeamServerLibraryDataTest:ref:refs/heads/main</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>",</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>                    "token.actions.githubusercontent.com:aud": "sts.amazonaws.com"</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>                }</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>            }</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>        }</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>    ]</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1395,16 +1341,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1419,7 +1365,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="7286625"/>
+          <a:off x="3476625" y="8924925"/>
           <a:ext cx="1057275" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1459,16 +1405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>208913</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1481,12 +1427,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="6" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3381375" y="4257038"/>
-          <a:ext cx="6010275" cy="2991487"/>
+          <a:off x="4005263" y="2632427"/>
+          <a:ext cx="4491037" cy="3920773"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1516,10 +1463,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3101683" cy="328423"/>
     <xdr:sp macro="" textlink="">
@@ -1535,7 +1482,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="5457825"/>
+          <a:off x="4695825" y="7134225"/>
           <a:ext cx="3101683" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1594,6 +1541,456 @@
             </a:rPr>
             <a:t>はこれを貼り付けてください。</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5057795" cy="3760004"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD9E85D-9F51-422D-B8E4-D75C9A0A51D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="11249025"/>
+          <a:ext cx="5057795" cy="3760004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>    "Version": "2012-10-17",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>    "Statement": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>        {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            "Effect": "Allow",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            "Action": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "ec2:StartInstances",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "ec2:StopInstances",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "ssm:SendCommand"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            "Resource": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "arn:aws:ssm:ap-northeast-1:*:document/AWS-RunShellScript",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "arn:aws:ec2:ap-northeast-1:*:instance/*"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            "Condition": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "StringLike": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                    "ec2:ResourceTag/Name": "ForTeamServerLibraryDataTest-*"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>    ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2749471" cy="2593018"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F87366-1D6B-4F5C-B70A-00BACAB37586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="11210925"/>
+          <a:ext cx="2749471" cy="2593018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>    "Version": "2012-10-17",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>    "Statement": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            "Effect": "Allow",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            "Action": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "ec2:DescribeInstances",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "ec2:DescribeAddresses"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            "Resource": [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>                "*"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>            ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>    ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1921,13 +2318,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AA5025-13FF-43B5-B1CC-582EC5F26F40}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1937,7 +2335,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1947,25 +2345,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1DED2D-7370-427F-B4C7-3C9E86E0D73A}">
-  <dimension ref="B2:B22"/>
+  <dimension ref="B11:AG43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="1" t="s">
+    <row r="11" spans="2:2" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B3" t="s">
+    <row r="42" spans="11:33" x14ac:dyDescent="0.4">
+      <c r="K42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="AF42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG42" s="1"/>
+    </row>
+    <row r="43" spans="11:33" x14ac:dyDescent="0.4">
+      <c r="K43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="B22" s="1" t="s">
-        <v>2</v>
+      <c r="AF43" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
